--- a/uploadexcel/mobanexcel.xlsx
+++ b/uploadexcel/mobanexcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\handle\handle\moban_upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\handlegit\handleVue\uploadexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378160A3-968C-4188-981F-F055A26E6E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC96DBD1-249E-4614-B50C-1E7F2A2F6A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="383" windowWidth="13635" windowHeight="9847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="833" yWindow="428" windowWidth="13635" windowHeight="9847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>前缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,15 +63,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nangjing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bjut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>www.BJUT.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,9 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -425,58 +419,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
